--- a/Antilog in Excel.xlsx
+++ b/Antilog in Excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>number</t>
   </si>
@@ -60,13 +60,19 @@
   </si>
   <si>
     <t>=B9^B8</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>https://Best-Excel-Tutorial.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +80,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,14 +112,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,7 +416,7 @@
     <col min="3" max="3" width="11.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +424,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -411,7 +436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -423,7 +448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -435,7 +460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -447,7 +472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -459,7 +484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -467,7 +492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -479,7 +504,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:D13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>